--- a/resources/testing/testing_proceedures.xlsx
+++ b/resources/testing/testing_proceedures.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fe2308131e844508/2018 Spring/CSCI_223 Software Development/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{59492E43-6908-40F9-A91B-CA5F2510AF3E}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="296" documentId="8_{59492E43-6908-40F9-A91B-CA5F2510AF3E}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{4A9066F4-B5CC-4FDF-8F46-B66B826F71EB}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17740" xr2:uid="{35DCFEB1-A315-4451-B91B-93AEA48CF88B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="59">
   <si>
     <t>index.php</t>
   </si>
@@ -63,9 +63,6 @@
     <t>form action</t>
   </si>
   <si>
-    <t>form elements</t>
-  </si>
-  <si>
     <t>elements contain appropriate id values</t>
   </si>
   <si>
@@ -78,9 +75,6 @@
     <t>password</t>
   </si>
   <si>
-    <t>checkbox</t>
-  </si>
-  <si>
     <t>submit</t>
   </si>
   <si>
@@ -99,10 +93,115 @@
     <t>faculty/</t>
   </si>
   <si>
-    <t>assets/css</t>
-  </si>
-  <si>
-    <t>assets/js</t>
+    <t>assets/</t>
+  </si>
+  <si>
+    <t>Folder Empty</t>
+  </si>
+  <si>
+    <t>img/</t>
+  </si>
+  <si>
+    <t>css/</t>
+  </si>
+  <si>
+    <t>js/</t>
+  </si>
+  <si>
+    <t>checkbox to show pswd</t>
+  </si>
+  <si>
+    <t>report.php</t>
+  </si>
+  <si>
+    <t>Select Semester</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Class Time</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>conforms to wireframe</t>
+  </si>
+  <si>
+    <t>Select Course</t>
+  </si>
+  <si>
+    <t>Select Time</t>
+  </si>
+  <si>
+    <t>Update Button</t>
+  </si>
+  <si>
+    <t>Show Results Button</t>
+  </si>
+  <si>
+    <t>Retrieve Class Roster Button</t>
+  </si>
+  <si>
+    <t>form element</t>
+  </si>
+  <si>
+    <t>funcionality</t>
+  </si>
+  <si>
+    <t>add_faculty.php</t>
+  </si>
+  <si>
+    <t>add_student.php</t>
+  </si>
+  <si>
+    <t>add_executive.php</t>
+  </si>
+  <si>
+    <t>Select Faculty</t>
+  </si>
+  <si>
+    <t>Generate Roster Button</t>
+  </si>
+  <si>
+    <t>Remove Button</t>
+  </si>
+  <si>
+    <t>Add Button</t>
+  </si>
+  <si>
+    <t>Tested on</t>
+  </si>
+  <si>
+    <t>Firefox</t>
+  </si>
+  <si>
+    <t>Chrome</t>
+  </si>
+  <si>
+    <t>Safari</t>
+  </si>
+  <si>
+    <t>apple mobile/tablet</t>
+  </si>
+  <si>
+    <t>android mobile/tablet</t>
+  </si>
+  <si>
+    <t>Select Instructor</t>
+  </si>
+  <si>
+    <t>Click to  Display Ind. Stu. Att.</t>
+  </si>
+  <si>
+    <t>Save Results Button</t>
+  </si>
+  <si>
+    <t>View Another Button</t>
+  </si>
+  <si>
+    <t>Select Multi Course/Instructors</t>
   </si>
 </sst>
 </file>
@@ -157,7 +256,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -300,11 +399,269 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -313,27 +670,95 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -648,23 +1073,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2ABE6C6-253E-47DA-9B86-5CCD2C0C06F6}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:I140"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14.1796875" customWidth="1"/>
     <col min="2" max="2" width="12.1796875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="13.90625" customWidth="1"/>
+    <col min="3" max="3" width="18.7265625" customWidth="1"/>
     <col min="4" max="4" width="14.1796875" customWidth="1"/>
-    <col min="5" max="5" width="19.1796875" customWidth="1"/>
+    <col min="5" max="5" width="31.1796875" customWidth="1"/>
     <col min="8" max="8" width="61.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
@@ -675,206 +1100,1463 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="37.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" ht="37.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B3" s="9" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="11" t="s">
+      <c r="C3" s="9"/>
+      <c r="D3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="20"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B4" s="13"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6" t="s">
+      <c r="E3" s="18"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B4" s="42"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="45"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B5" s="11"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="15"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B5" s="13"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6" t="s">
+      <c r="E5" s="19"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="13"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B6" s="11"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="19"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B7" s="11"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="19"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B8" s="12"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B9" s="11"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B10" s="12"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B11" s="12"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B12" s="12"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="15"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B6" s="13"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6" t="s">
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="13"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B13" s="12"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B14" s="12"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B15" s="12"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="13"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B16" s="12"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="13"/>
+    </row>
+    <row r="17" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="25"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="20"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="16"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B18" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="18"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="17"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B19" s="57"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="45"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="40"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B20" s="57"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="19"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="13"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B21" s="57"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="19"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="13"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B22" s="57"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="15"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B7" s="14"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="7" t="s">
+      <c r="E22" s="19"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="13"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B23" s="57"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E23" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="15"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B8" s="13"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8" t="s">
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="13"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B24" s="57"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="13"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B25" s="57"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="13"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B26" s="57"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="13"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B27" s="57"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="13"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B28" s="57"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="13"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B29" s="57"/>
+      <c r="C29" s="59"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="27"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B30" s="57"/>
+      <c r="C30" s="59"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="27"/>
+    </row>
+    <row r="31" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B31" s="57"/>
+      <c r="C31" s="52"/>
+      <c r="D31" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31" s="20"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="16"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B32" s="57"/>
+      <c r="C32" s="53" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="18"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="17"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B33" s="57"/>
+      <c r="C33" s="50"/>
+      <c r="D33" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="E33" s="45"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="40"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B34" s="57"/>
+      <c r="C34" s="51"/>
+      <c r="D34" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="19"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="13"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B35" s="57"/>
+      <c r="C35" s="51"/>
+      <c r="D35" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" s="19"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="13"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B36" s="57"/>
+      <c r="C36" s="51"/>
+      <c r="D36" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="19"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="13"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B37" s="57"/>
+      <c r="C37" s="51"/>
+      <c r="D37" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="13"/>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B38" s="57"/>
+      <c r="C38" s="51"/>
+      <c r="D38" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="13"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B39" s="57"/>
+      <c r="C39" s="51"/>
+      <c r="D39" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="13"/>
+    </row>
+    <row r="40" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B40" s="57"/>
+      <c r="C40" s="52"/>
+      <c r="D40" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E40" s="20"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="16"/>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B41" s="57"/>
+      <c r="C41" s="53" t="s">
+        <v>42</v>
+      </c>
+      <c r="D41" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E41" s="18"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="33"/>
+      <c r="H41" s="17"/>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B42" s="57"/>
+      <c r="C42" s="50"/>
+      <c r="D42" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="E42" s="45"/>
+      <c r="F42" s="32"/>
+      <c r="G42" s="32"/>
+      <c r="H42" s="40"/>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B43" s="57"/>
+      <c r="C43" s="51"/>
+      <c r="D43" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" s="19"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="13"/>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B44" s="57"/>
+      <c r="C44" s="51"/>
+      <c r="D44" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" s="19"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="13"/>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B45" s="57"/>
+      <c r="C45" s="51"/>
+      <c r="D45" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" s="19"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="13"/>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B46" s="57"/>
+      <c r="C46" s="51"/>
+      <c r="D46" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="13"/>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B47" s="57"/>
+      <c r="C47" s="51"/>
+      <c r="D47" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="13"/>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B48" s="57"/>
+      <c r="C48" s="51"/>
+      <c r="D48" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="13"/>
+    </row>
+    <row r="49" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B49" s="57"/>
+      <c r="C49" s="52"/>
+      <c r="D49" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E49" s="20"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="15"/>
+      <c r="H49" s="16"/>
+    </row>
+    <row r="50" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B50" s="57"/>
+      <c r="C50" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="D50" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E50" s="18"/>
+      <c r="F50" s="33"/>
+      <c r="G50" s="33"/>
+      <c r="H50" s="17"/>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B51" s="57"/>
+      <c r="C51" s="50"/>
+      <c r="D51" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="E51" s="45"/>
+      <c r="F51" s="32"/>
+      <c r="G51" s="32"/>
+      <c r="H51" s="40"/>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B52" s="57"/>
+      <c r="C52" s="51"/>
+      <c r="D52" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E52" s="19"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="13"/>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B53" s="57"/>
+      <c r="C53" s="51"/>
+      <c r="D53" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E53" s="19"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="13"/>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B54" s="57"/>
+      <c r="C54" s="51"/>
+      <c r="D54" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="19"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="13"/>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B55" s="57"/>
+      <c r="C55" s="51"/>
+      <c r="D55" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="13"/>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B56" s="57"/>
+      <c r="C56" s="51"/>
+      <c r="D56" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="13"/>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B57" s="57"/>
+      <c r="C57" s="51"/>
+      <c r="D57" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="13"/>
+    </row>
+    <row r="58" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B58" s="58"/>
+      <c r="C58" s="52"/>
+      <c r="D58" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E58" s="20"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="15"/>
+      <c r="H58" s="16"/>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B59" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="C59" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="D59" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="E59" s="62"/>
+      <c r="F59" s="33"/>
+      <c r="G59" s="33"/>
+      <c r="H59" s="17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B60" s="46"/>
+      <c r="C60" s="48"/>
+      <c r="D60" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="E60" s="60" t="s">
+        <v>49</v>
+      </c>
+      <c r="F60" s="32"/>
+      <c r="G60" s="32"/>
+      <c r="H60" s="40"/>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B61" s="46"/>
+      <c r="C61" s="48"/>
+      <c r="D61" s="39"/>
+      <c r="E61" s="60" t="s">
+        <v>50</v>
+      </c>
+      <c r="F61" s="32"/>
+      <c r="G61" s="32"/>
+      <c r="H61" s="40"/>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B62" s="46"/>
+      <c r="C62" s="48"/>
+      <c r="D62" s="39"/>
+      <c r="E62" s="60" t="s">
+        <v>51</v>
+      </c>
+      <c r="F62" s="32"/>
+      <c r="G62" s="32"/>
+      <c r="H62" s="40"/>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B63" s="46"/>
+      <c r="C63" s="48"/>
+      <c r="D63" s="39"/>
+      <c r="E63" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="F63" s="32"/>
+      <c r="G63" s="32"/>
+      <c r="H63" s="40"/>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B64" s="46"/>
+      <c r="C64" s="48"/>
+      <c r="D64" s="39"/>
+      <c r="E64" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="F64" s="32"/>
+      <c r="G64" s="32"/>
+      <c r="H64" s="40"/>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B65" s="41"/>
+      <c r="C65" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="D65" s="28"/>
+      <c r="E65" s="28"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="13"/>
+    </row>
+    <row r="66" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B66" s="63"/>
+      <c r="C66" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="D66" s="29"/>
+      <c r="E66" s="29"/>
+      <c r="F66" s="26"/>
+      <c r="G66" s="26"/>
+      <c r="H66" s="65"/>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B67" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D67" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E67" s="18"/>
+      <c r="F67" s="33"/>
+      <c r="G67" s="33"/>
+      <c r="H67" s="66" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B68" s="12"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E68" s="19"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="13"/>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B69" s="12"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E69" s="19"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="13"/>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B70" s="12"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E70" s="19"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="13"/>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B71" s="12"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E71" s="19"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="13"/>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B72" s="12"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="13"/>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B73" s="12"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="15"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B9" s="14"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="15"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B10" s="14"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8" t="s">
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="13"/>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B74" s="12"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E74" t="s">
+        <v>54</v>
+      </c>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="13"/>
+    </row>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B75" s="12"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="13"/>
+    </row>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B76" s="12"/>
+      <c r="C76" s="7"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
+      <c r="H76" s="13"/>
+    </row>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B77" s="12"/>
+      <c r="C77" s="7"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F77" s="7"/>
+      <c r="G77" s="7"/>
+      <c r="H77" s="13"/>
+    </row>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B78" s="12"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="13"/>
+    </row>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B79" s="12"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
+      <c r="H79" s="13"/>
+    </row>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B80" s="12"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F80" s="7"/>
+      <c r="G80" s="7"/>
+      <c r="H80" s="13"/>
+    </row>
+    <row r="81" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B81" s="12"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F81" s="7"/>
+      <c r="G81" s="7"/>
+      <c r="H81" s="13"/>
+    </row>
+    <row r="82" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B82" s="12"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F82" s="7"/>
+      <c r="G82" s="7"/>
+      <c r="H82" s="13"/>
+    </row>
+    <row r="83" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B83" s="14"/>
+      <c r="C83" s="15"/>
+      <c r="D83" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E83" s="20"/>
+      <c r="F83" s="15"/>
+      <c r="G83" s="15"/>
+      <c r="H83" s="16"/>
+    </row>
+    <row r="84" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B84" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="C84" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="D84" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E84" s="31"/>
+      <c r="F84" s="32"/>
+      <c r="G84" s="32"/>
+      <c r="H84" s="40"/>
+    </row>
+    <row r="85" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B85" s="46"/>
+      <c r="C85" s="47"/>
+      <c r="D85" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="E85" s="45"/>
+      <c r="F85" s="32"/>
+      <c r="G85" s="32"/>
+      <c r="H85" s="40"/>
+    </row>
+    <row r="86" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B86" s="37"/>
+      <c r="C86" s="34"/>
+      <c r="D86" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E86" s="19"/>
+      <c r="F86" s="7"/>
+      <c r="G86" s="7"/>
+      <c r="H86" s="13"/>
+    </row>
+    <row r="87" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B87" s="37"/>
+      <c r="C87" s="34"/>
+      <c r="D87" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E87" s="19"/>
+      <c r="F87" s="7"/>
+      <c r="G87" s="7"/>
+      <c r="H87" s="13"/>
+    </row>
+    <row r="88" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B88" s="37"/>
+      <c r="C88" s="34"/>
+      <c r="D88" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E88" s="19"/>
+      <c r="F88" s="7"/>
+      <c r="G88" s="7"/>
+      <c r="H88" s="13"/>
+    </row>
+    <row r="89" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B89" s="37"/>
+      <c r="C89" s="34"/>
+      <c r="D89" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E89" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F89" s="7"/>
+      <c r="G89" s="7"/>
+      <c r="H89" s="13"/>
+    </row>
+    <row r="90" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B90" s="37"/>
+      <c r="C90" s="34"/>
+      <c r="D90" s="7"/>
+      <c r="E90" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="15"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B11" s="14"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="7" t="s">
+      <c r="F90" s="7"/>
+      <c r="G90" s="7"/>
+      <c r="H90" s="13"/>
+    </row>
+    <row r="91" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B91" s="37"/>
+      <c r="C91" s="34"/>
+      <c r="D91" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E91" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F91" s="7"/>
+      <c r="G91" s="7"/>
+      <c r="H91" s="13"/>
+    </row>
+    <row r="92" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B92" s="37"/>
+      <c r="C92" s="34"/>
+      <c r="D92" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E92" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F92" s="7"/>
+      <c r="G92" s="7"/>
+      <c r="H92" s="13"/>
+    </row>
+    <row r="93" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B93" s="37"/>
+      <c r="C93" s="34"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F93" s="7"/>
+      <c r="G93" s="7"/>
+      <c r="H93" s="13"/>
+    </row>
+    <row r="94" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B94" s="37"/>
+      <c r="C94" s="34"/>
+      <c r="D94" s="7"/>
+      <c r="E94" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F94" s="7"/>
+      <c r="G94" s="7"/>
+      <c r="H94" s="13"/>
+    </row>
+    <row r="95" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B95" s="37"/>
+      <c r="C95" s="34"/>
+      <c r="D95" s="7"/>
+      <c r="E95" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F95" s="7"/>
+      <c r="G95" s="7"/>
+      <c r="H95" s="13"/>
+    </row>
+    <row r="96" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B96" s="37"/>
+      <c r="C96" s="34"/>
+      <c r="D96" s="6"/>
+      <c r="E96" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F96" s="7"/>
+      <c r="G96" s="7"/>
+      <c r="H96" s="13"/>
+    </row>
+    <row r="97" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B97" s="37"/>
+      <c r="C97" s="34"/>
+      <c r="D97" s="7"/>
+      <c r="E97" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F97" s="7"/>
+      <c r="G97" s="7"/>
+      <c r="H97" s="13"/>
+    </row>
+    <row r="98" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B98" s="37"/>
+      <c r="C98" s="35"/>
+      <c r="D98" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E98" s="20"/>
+      <c r="F98" s="15"/>
+      <c r="G98" s="15"/>
+      <c r="H98" s="16"/>
+    </row>
+    <row r="99" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B99" s="37"/>
+      <c r="C99" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="D99" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E99" s="18"/>
+      <c r="F99" s="33"/>
+      <c r="G99" s="33"/>
+      <c r="H99" s="17"/>
+    </row>
+    <row r="100" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B100" s="37"/>
+      <c r="C100" s="48"/>
+      <c r="D100" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="E100" s="45"/>
+      <c r="F100" s="32"/>
+      <c r="G100" s="32"/>
+      <c r="H100" s="40"/>
+    </row>
+    <row r="101" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B101" s="37"/>
+      <c r="C101" s="34"/>
+      <c r="D101" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E101" s="19"/>
+      <c r="F101" s="7"/>
+      <c r="G101" s="7"/>
+      <c r="H101" s="13"/>
+    </row>
+    <row r="102" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B102" s="37"/>
+      <c r="C102" s="34"/>
+      <c r="D102" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="15"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B12" s="14"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="15"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B13" s="14"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8" t="s">
+      <c r="E102" s="19"/>
+      <c r="F102" s="7"/>
+      <c r="G102" s="7"/>
+      <c r="H102" s="13"/>
+    </row>
+    <row r="103" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B103" s="37"/>
+      <c r="C103" s="34"/>
+      <c r="D103" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E103" s="19"/>
+      <c r="F103" s="7"/>
+      <c r="G103" s="7"/>
+      <c r="H103" s="13"/>
+    </row>
+    <row r="104" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B104" s="37"/>
+      <c r="C104" s="34"/>
+      <c r="D104" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E104" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F104" s="7"/>
+      <c r="G104" s="7"/>
+      <c r="H104" s="13"/>
+    </row>
+    <row r="105" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B105" s="37"/>
+      <c r="C105" s="34"/>
+      <c r="D105" s="7"/>
+      <c r="E105" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F105" s="7"/>
+      <c r="G105" s="7"/>
+      <c r="H105" s="13"/>
+    </row>
+    <row r="106" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B106" s="37"/>
+      <c r="C106" s="34"/>
+      <c r="D106" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E106" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F106" s="7"/>
+      <c r="G106" s="7"/>
+      <c r="H106" s="13"/>
+    </row>
+    <row r="107" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B107" s="37"/>
+      <c r="C107" s="34"/>
+      <c r="D107" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E107" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F107" s="7"/>
+      <c r="G107" s="7"/>
+      <c r="H107" s="13"/>
+    </row>
+    <row r="108" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B108" s="37"/>
+      <c r="C108" s="34"/>
+      <c r="D108" s="7"/>
+      <c r="E108" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F108" s="7"/>
+      <c r="G108" s="7"/>
+      <c r="H108" s="13"/>
+    </row>
+    <row r="109" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B109" s="37"/>
+      <c r="C109" s="34"/>
+      <c r="D109" s="7"/>
+      <c r="E109" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F109" s="7"/>
+      <c r="G109" s="7"/>
+      <c r="H109" s="13"/>
+    </row>
+    <row r="110" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B110" s="37"/>
+      <c r="C110" s="34"/>
+      <c r="D110" s="7"/>
+      <c r="E110" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="15"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B14" s="14"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8" t="s">
+      <c r="F110" s="7"/>
+      <c r="G110" s="7"/>
+      <c r="H110" s="13"/>
+    </row>
+    <row r="111" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B111" s="38"/>
+      <c r="C111" s="35"/>
+      <c r="D111" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="15"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B15" s="14"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="15"/>
-    </row>
-    <row r="16" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="16"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="18"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="19"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B17" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B18" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B19" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B20" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B21" s="4" t="s">
-        <v>25</v>
-      </c>
+      <c r="E111" s="20"/>
+      <c r="F111" s="15"/>
+      <c r="G111" s="15"/>
+      <c r="H111" s="16"/>
+    </row>
+    <row r="112" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B112" s="4"/>
+      <c r="D112" s="23"/>
+      <c r="E112" s="23"/>
+    </row>
+    <row r="113" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="D113" s="23"/>
+      <c r="E113" s="23"/>
+    </row>
+    <row r="114" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="D114" s="23"/>
+      <c r="E114" s="23"/>
+    </row>
+    <row r="115" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="D115" s="23"/>
+      <c r="E115" s="23"/>
+    </row>
+    <row r="116" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="D116" s="22"/>
+      <c r="E116" s="21"/>
+    </row>
+    <row r="117" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="D117" s="21"/>
+      <c r="E117" s="21"/>
+    </row>
+    <row r="118" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="D118" s="21"/>
+      <c r="E118" s="21"/>
+    </row>
+    <row r="119" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="D119" s="21"/>
+      <c r="E119" s="21"/>
+    </row>
+    <row r="120" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="D120" s="22"/>
+      <c r="E120" s="21"/>
+    </row>
+    <row r="121" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="D121" s="21"/>
+      <c r="E121" s="21"/>
+    </row>
+    <row r="122" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="D122" s="21"/>
+      <c r="E122" s="21"/>
+    </row>
+    <row r="123" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="D123" s="21"/>
+      <c r="E123" s="21"/>
+    </row>
+    <row r="124" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="D124" s="21"/>
+      <c r="E124" s="21"/>
+    </row>
+    <row r="125" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="D125" s="24"/>
+      <c r="E125" s="24"/>
+    </row>
+    <row r="126" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B126" s="4"/>
+      <c r="D126" s="23"/>
+      <c r="E126" s="23"/>
+    </row>
+    <row r="127" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="D127" s="23"/>
+      <c r="E127" s="23"/>
+    </row>
+    <row r="128" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="D128" s="23"/>
+      <c r="E128" s="23"/>
+    </row>
+    <row r="129" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="D129" s="23"/>
+      <c r="E129" s="23"/>
+    </row>
+    <row r="130" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="D130" s="22"/>
+      <c r="E130" s="21"/>
+    </row>
+    <row r="131" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="D131" s="21"/>
+      <c r="E131" s="21"/>
+    </row>
+    <row r="132" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="D132" s="21"/>
+      <c r="E132" s="21"/>
+    </row>
+    <row r="133" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="D133" s="21"/>
+      <c r="E133" s="21"/>
+    </row>
+    <row r="134" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="D134" s="22"/>
+      <c r="E134" s="21"/>
+    </row>
+    <row r="135" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="D135" s="21"/>
+      <c r="E135" s="21"/>
+    </row>
+    <row r="136" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="D136" s="21"/>
+      <c r="E136" s="21"/>
+    </row>
+    <row r="137" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="D137" s="21"/>
+      <c r="E137" s="21"/>
+    </row>
+    <row r="138" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="D138" s="21"/>
+      <c r="E138" s="21"/>
+    </row>
+    <row r="139" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="D139" s="24"/>
+      <c r="E139" s="24"/>
+    </row>
+    <row r="140" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B140" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="59">
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D126:E126"/>
+    <mergeCell ref="D127:E127"/>
+    <mergeCell ref="D128:E128"/>
+    <mergeCell ref="D129:E129"/>
+    <mergeCell ref="D139:E139"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="D113:E113"/>
+    <mergeCell ref="D114:E114"/>
+    <mergeCell ref="D115:E115"/>
+    <mergeCell ref="D125:E125"/>
+    <mergeCell ref="D99:E99"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="D102:E102"/>
+    <mergeCell ref="D103:E103"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="D88:E88"/>
+    <mergeCell ref="D98:E98"/>
     <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D17:E17"/>
     <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D16:E16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
